--- a/TechPractickProgramm/bin/Debug/Отправления.xlsx
+++ b/TechPractickProgramm/bin/Debug/Отправления.xlsx
@@ -50,7 +50,7 @@
     <t>0,6</t>
   </si>
   <si>
-    <t>Дата составления: 10.11.2023</t>
+    <t>Дата составления: 12.12.2023</t>
   </si>
 </sst>
 </file>
